--- a/Assets/ExcelDatas/StatLevelData.xlsx
+++ b/Assets/ExcelDatas/StatLevelData.xlsx
@@ -353,10 +353,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -807,7 +803,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>

--- a/Assets/ExcelDatas/StatLevelData.xlsx
+++ b/Assets/ExcelDatas/StatLevelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{63C66BA3-6540-4A73-9895-69F8C0743213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9A415A7-C274-4B72-851A-C9A0B5DE772C}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{63C66BA3-6540-4A73-9895-69F8C0743213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43A403FE-B945-49B5-A5AC-6724BA08CA52}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>UpgradeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonusAttackDamage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -803,7 +807,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
@@ -872,7 +876,7 @@
         <v>12001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2">
         <v>20</v>

--- a/Assets/ExcelDatas/StatLevelData.xlsx
+++ b/Assets/ExcelDatas/StatLevelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{63C66BA3-6540-4A73-9895-69F8C0743213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43A403FE-B945-49B5-A5AC-6724BA08CA52}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{63C66BA3-6540-4A73-9895-69F8C0743213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED364EA9-5665-4C03-82C5-A61221E76741}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,10 +150,6 @@
   </si>
   <si>
     <t>UpgradeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BonusAttackDamage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,6 +353,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -807,7 +807,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
@@ -876,7 +876,7 @@
         <v>12001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2">
         <v>20</v>

--- a/Assets/ExcelDatas/StatLevelData.xlsx
+++ b/Assets/ExcelDatas/StatLevelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{63C66BA3-6540-4A73-9895-69F8C0743213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED364EA9-5665-4C03-82C5-A61221E76741}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{63C66BA3-6540-4A73-9895-69F8C0743213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0380383F-31EF-47E2-BF64-E75014D90E06}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="285" yWindow="2085" windowWidth="18645" windowHeight="10695" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="6" state="hidden" r:id="rId1"/>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AttackDamage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,6 +146,10 @@
   </si>
   <si>
     <t>UpgradeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum&lt;UpgradeName&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -807,13 +807,13 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.4375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.25" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="2" bestFit="1" customWidth="1"/>
@@ -842,7 +842,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -859,7 +859,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -868,7 +868,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.6">
@@ -876,7 +876,7 @@
         <v>12001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
         <v>20</v>
@@ -893,7 +893,7 @@
         <v>12002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2">
         <v>20</v>
@@ -910,7 +910,7 @@
         <v>12003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2">
         <v>20</v>
@@ -927,7 +927,7 @@
         <v>12004</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2">
         <v>20</v>
@@ -944,7 +944,7 @@
         <v>12005</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2">
         <v>20</v>
@@ -1046,7 +1046,7 @@
         <v>12011</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2">
         <v>200</v>
@@ -1063,7 +1063,7 @@
         <v>12012</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>200</v>
@@ -1080,7 +1080,7 @@
         <v>12013</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2">
         <v>200</v>
@@ -1097,7 +1097,7 @@
         <v>12014</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2">
         <v>200</v>
@@ -1114,7 +1114,7 @@
         <v>12015</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2">
         <v>200</v>
@@ -1131,7 +1131,7 @@
         <v>12016</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2">
         <v>100</v>
@@ -1148,7 +1148,7 @@
         <v>12017</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2">
         <v>100</v>
@@ -1165,7 +1165,7 @@
         <v>12018</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2">
         <v>100</v>
@@ -1182,7 +1182,7 @@
         <v>12019</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2">
         <v>100</v>
@@ -1199,7 +1199,7 @@
         <v>12020</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2">
         <v>100</v>
@@ -1216,7 +1216,7 @@
         <v>12021</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2">
         <v>50</v>
@@ -1233,7 +1233,7 @@
         <v>12022</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="2">
         <v>50</v>
@@ -1250,7 +1250,7 @@
         <v>12023</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2">
         <v>50</v>
@@ -1267,7 +1267,7 @@
         <v>12024</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2">
         <v>50</v>
@@ -1284,7 +1284,7 @@
         <v>12025</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="2">
         <v>50</v>

--- a/Assets/ExcelDatas/StatLevelData.xlsx
+++ b/Assets/ExcelDatas/StatLevelData.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{63C66BA3-6540-4A73-9895-69F8C0743213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0380383F-31EF-47E2-BF64-E75014D90E06}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="2085" windowWidth="18645" windowHeight="10695" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="6" state="hidden" r:id="rId1"/>
@@ -807,7 +807,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>

--- a/Assets/ExcelDatas/StatLevelData.xlsx
+++ b/Assets/ExcelDatas/StatLevelData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{63C66BA3-6540-4A73-9895-69F8C0743213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0380383F-31EF-47E2-BF64-E75014D90E06}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{63C66BA3-6540-4A73-9895-69F8C0743213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{662DDCB3-A795-4C95-A7B6-B1E82E42AF3C}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Define" sheetId="6" state="hidden" r:id="rId1"/>
+    <sheet name="Define" sheetId="8" state="hidden" r:id="rId1"/>
     <sheet name="StatLevelTable" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -26,11 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
-  <si>
-    <t>ALL:KEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
   <si>
     <t>ALL</t>
   </si>
@@ -51,81 +47,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
+    <t>AttackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL;KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddStat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AttackDamage</t>
-  </si>
-  <si>
-    <t>AttackSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectileSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PenetrateTaget</t>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고유 인덱스 값입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기의 이름이 들어가는 주석입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기의 이름을 스트링테이블에서 가져옵니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기의 데미지 입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기의 공격 속도입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기의 사거리 입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체의 스피드 입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체가 맞는 대상의 수입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL;KEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddStat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackDamage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -145,11 +83,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UpgradeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum&lt;UpgradeName&gt;</t>
+    <t>Enum 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectStatRateValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum&lt;InchantEfect1&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비율 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum&lt;UpgradeStat&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 공격력 능력치를 영구히 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 공격속도 능력치를 영구히 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 이동속도 능력치를 영구히 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 방어력 능력치를 영구히 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 치명타 확률 능력치를 영구히 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,15 +176,21 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -206,13 +198,124 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,13 +326,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="15">
     <dxf>
       <font>
         <strike val="0"/>
@@ -342,6 +487,193 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -360,11 +692,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81D557A3-C0EF-4A58-AAE6-4AA5FAE4319B}" name="표2_23" displayName="표2_23" ref="A2:E7" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A2:E7" xr:uid="{74DD16FE-5A9E-4AB2-9606-9A7DEDCFE3FE}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C9A0CAE9-D2FF-4651-9E34-DFCF3CF5051A}" name="Enum 명" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{97076768-6703-4B1A-88D1-3FF3DF3D3594}" name="enum" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{2C9387F7-515A-4EB7-BC0B-E447AA11530F}" name="enum 종류"/>
+    <tableColumn id="5" xr3:uid="{D7621214-5EBE-427F-B22C-1CDF4FAB0C99}" name="SelectStatRateValue" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{D2418ACE-C4C0-4F17-B57B-9BD449B9EED8}" name="설명" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9658A823-3DA1-47C6-8BBA-59864BF9156C}" name="표2_2" displayName="표2_2" ref="A3:E28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A3:E28" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{48C3BFC0-1939-4777-A775-4539CD987212}" name="Index" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{8F1ED2AA-D9D2-49AA-967A-E96539B403C3}" name="UpgradeName" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{8F1ED2AA-D9D2-49AA-967A-E96539B403C3}" name="UpgradeStat" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{879C8458-55D3-490C-B008-37FEB8ADB40B}" name="AddStat" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{9A4876DF-E863-48A5-B265-F985861F8B76}" name="Level" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{AD0E8C02-DDEF-4E0D-9C02-0544E346969B}" name="Gold" dataDxfId="0"/>
@@ -669,136 +1015,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6329419-DE25-48C7-9BB0-F65E2B49D800}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6B24DC-0A19-41B5-879A-66E28390CC25}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="2" width="8.75" style="1"/>
-    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="7"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="E7" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -807,7 +1188,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
@@ -822,53 +1203,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.6">
@@ -876,7 +1257,7 @@
         <v>12001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
         <v>20</v>
@@ -893,7 +1274,7 @@
         <v>12002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
         <v>20</v>
@@ -910,7 +1291,7 @@
         <v>12003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>20</v>
@@ -927,7 +1308,7 @@
         <v>12004</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2">
         <v>20</v>
@@ -944,7 +1325,7 @@
         <v>12005</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
         <v>20</v>
@@ -961,7 +1342,7 @@
         <v>12006</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
         <v>100</v>
@@ -978,7 +1359,7 @@
         <v>12007</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
         <v>100</v>
@@ -995,7 +1376,7 @@
         <v>12008</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2">
         <v>100</v>
@@ -1012,7 +1393,7 @@
         <v>12009</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2">
         <v>100</v>
@@ -1029,7 +1410,7 @@
         <v>12010</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2">
         <v>100</v>
@@ -1046,7 +1427,7 @@
         <v>12011</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2">
         <v>200</v>
@@ -1063,7 +1444,7 @@
         <v>12012</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2">
         <v>200</v>
@@ -1080,7 +1461,7 @@
         <v>12013</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2">
         <v>200</v>
@@ -1097,7 +1478,7 @@
         <v>12014</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2">
         <v>200</v>
@@ -1114,7 +1495,7 @@
         <v>12015</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2">
         <v>200</v>
@@ -1131,7 +1512,7 @@
         <v>12016</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2">
         <v>100</v>
@@ -1148,7 +1529,7 @@
         <v>12017</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2">
         <v>100</v>
@@ -1165,7 +1546,7 @@
         <v>12018</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2">
         <v>100</v>
@@ -1182,7 +1563,7 @@
         <v>12019</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2">
         <v>100</v>
@@ -1199,7 +1580,7 @@
         <v>12020</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2">
         <v>100</v>
@@ -1216,7 +1597,7 @@
         <v>12021</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2">
         <v>50</v>
@@ -1233,7 +1614,7 @@
         <v>12022</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C25" s="2">
         <v>50</v>
@@ -1250,7 +1631,7 @@
         <v>12023</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C26" s="2">
         <v>50</v>
@@ -1267,7 +1648,7 @@
         <v>12024</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2">
         <v>50</v>
@@ -1284,7 +1665,7 @@
         <v>12025</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C28" s="2">
         <v>50</v>

--- a/Assets/ExcelDatas/StatLevelData.xlsx
+++ b/Assets/ExcelDatas/StatLevelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{63C66BA3-6540-4A73-9895-69F8C0743213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{662DDCB3-A795-4C95-A7B6-B1E82E42AF3C}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{63C66BA3-6540-4A73-9895-69F8C0743213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB8542DC-922D-4A06-94F7-241338498A59}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
@@ -1188,7 +1188,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>

--- a/Assets/ExcelDatas/StatLevelData.xlsx
+++ b/Assets/ExcelDatas/StatLevelData.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{63C66BA3-6540-4A73-9895-69F8C0743213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB8542DC-922D-4A06-94F7-241338498A59}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView minimized="1" xWindow="622" yWindow="2422" windowWidth="18645" windowHeight="10696" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="8" state="hidden" r:id="rId1"/>
@@ -1188,7 +1188,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>

--- a/Assets/ExcelDatas/StatLevelData.xlsx
+++ b/Assets/ExcelDatas/StatLevelData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dunn\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{63C66BA3-6540-4A73-9895-69F8C0743213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB8542DC-922D-4A06-94F7-241338498A59}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2376CD60-005A-4CB9-8B0F-FEB748D8F2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="622" yWindow="2422" windowWidth="18645" windowHeight="10696" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="5628" yWindow="900" windowWidth="15324" windowHeight="10956" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="8" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
   <si>
     <t>ALL</t>
   </si>
@@ -136,6 +136,34 @@
   </si>
   <si>
     <t>enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Spum_Icon18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Spum_Icon31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Spum_Icon23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Spum_Icon28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Spum_Icon22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +203,13 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -315,7 +350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,12 +404,31 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -692,28 +746,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81D557A3-C0EF-4A58-AAE6-4AA5FAE4319B}" name="표2_23" displayName="표2_23" ref="A2:E7" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81D557A3-C0EF-4A58-AAE6-4AA5FAE4319B}" name="표2_23" displayName="표2_23" ref="A2:E7" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A2:E7" xr:uid="{74DD16FE-5A9E-4AB2-9606-9A7DEDCFE3FE}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C9A0CAE9-D2FF-4651-9E34-DFCF3CF5051A}" name="Enum 명" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{97076768-6703-4B1A-88D1-3FF3DF3D3594}" name="enum" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{C9A0CAE9-D2FF-4651-9E34-DFCF3CF5051A}" name="Enum 명" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{97076768-6703-4B1A-88D1-3FF3DF3D3594}" name="enum" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{2C9387F7-515A-4EB7-BC0B-E447AA11530F}" name="enum 종류"/>
-    <tableColumn id="5" xr3:uid="{D7621214-5EBE-427F-B22C-1CDF4FAB0C99}" name="SelectStatRateValue" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{D2418ACE-C4C0-4F17-B57B-9BD449B9EED8}" name="설명" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{D7621214-5EBE-427F-B22C-1CDF4FAB0C99}" name="SelectStatRateValue" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{D2418ACE-C4C0-4F17-B57B-9BD449B9EED8}" name="설명" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9658A823-3DA1-47C6-8BBA-59864BF9156C}" name="표2_2" displayName="표2_2" ref="A3:E28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A3:E28" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{48C3BFC0-1939-4777-A775-4539CD987212}" name="Index" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{8F1ED2AA-D9D2-49AA-967A-E96539B403C3}" name="UpgradeStat" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{879C8458-55D3-490C-B008-37FEB8ADB40B}" name="AddStat" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{9A4876DF-E863-48A5-B265-F985861F8B76}" name="Level" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{AD0E8C02-DDEF-4E0D-9C02-0544E346969B}" name="Gold" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9658A823-3DA1-47C6-8BBA-59864BF9156C}" name="표2_2" displayName="표2_2" ref="A3:F28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A3:F28" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{48C3BFC0-1939-4777-A775-4539CD987212}" name="Index" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8F1ED2AA-D9D2-49AA-967A-E96539B403C3}" name="UpgradeStat" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{879C8458-55D3-490C-B008-37FEB8ADB40B}" name="AddStat" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{9A4876DF-E863-48A5-B265-F985861F8B76}" name="Level" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{AD0E8C02-DDEF-4E0D-9C02-0544E346969B}" name="Gold" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{D737FB60-76D4-4E01-980D-8C57974F1BAB}" name="Icon" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1022,17 +1077,17 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="3" max="3" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1047,7 +1102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1064,7 +1119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -1081,7 +1136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -1094,7 +1149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -1107,7 +1162,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
@@ -1120,7 +1175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -1133,41 +1188,41 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -1185,23 +1240,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B2916C-EE63-43E2-961A-9DDBB10CECF4}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.4375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="3"/>
+    <col min="4" max="4" width="14.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1217,8 +1273,11 @@
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1234,8 +1293,11 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1251,8 +1313,11 @@
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>12001</v>
       </c>
@@ -1268,8 +1333,11 @@
       <c r="E4" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F4" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>12002</v>
       </c>
@@ -1285,8 +1353,11 @@
       <c r="E5" s="2">
         <v>3000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F5" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>12003</v>
       </c>
@@ -1302,8 +1373,11 @@
       <c r="E6" s="2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F6" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>12004</v>
       </c>
@@ -1319,8 +1393,11 @@
       <c r="E7" s="2">
         <v>6000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F7" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>12005</v>
       </c>
@@ -1336,8 +1413,11 @@
       <c r="E8" s="2">
         <v>8000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F8" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>12006</v>
       </c>
@@ -1353,8 +1433,11 @@
       <c r="E9" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F9" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>12007</v>
       </c>
@@ -1370,8 +1453,11 @@
       <c r="E10" s="2">
         <v>3000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F10" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>12008</v>
       </c>
@@ -1387,8 +1473,11 @@
       <c r="E11" s="2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F11" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>12009</v>
       </c>
@@ -1404,8 +1493,11 @@
       <c r="E12" s="2">
         <v>6000</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F12" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12010</v>
       </c>
@@ -1421,8 +1513,11 @@
       <c r="E13" s="2">
         <v>8000</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F13" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>12011</v>
       </c>
@@ -1438,8 +1533,11 @@
       <c r="E14" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F14" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>12012</v>
       </c>
@@ -1455,8 +1553,11 @@
       <c r="E15" s="2">
         <v>3000</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F15" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>12013</v>
       </c>
@@ -1472,8 +1573,11 @@
       <c r="E16" s="2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F16" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>12014</v>
       </c>
@@ -1489,8 +1593,11 @@
       <c r="E17" s="2">
         <v>6000</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F17" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>12015</v>
       </c>
@@ -1506,8 +1613,11 @@
       <c r="E18" s="2">
         <v>8000</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F18" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>12016</v>
       </c>
@@ -1523,8 +1633,11 @@
       <c r="E19" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F19" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>12017</v>
       </c>
@@ -1540,8 +1653,11 @@
       <c r="E20" s="2">
         <v>3000</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F20" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>12018</v>
       </c>
@@ -1557,8 +1673,11 @@
       <c r="E21" s="2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F21" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>12019</v>
       </c>
@@ -1574,8 +1693,11 @@
       <c r="E22" s="2">
         <v>6000</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F22" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>12020</v>
       </c>
@@ -1591,8 +1713,11 @@
       <c r="E23" s="2">
         <v>8000</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F23" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>12021</v>
       </c>
@@ -1608,8 +1733,11 @@
       <c r="E24" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F24" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>12022</v>
       </c>
@@ -1625,8 +1753,11 @@
       <c r="E25" s="2">
         <v>3000</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F25" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>12023</v>
       </c>
@@ -1642,8 +1773,11 @@
       <c r="E26" s="2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F26" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>12024</v>
       </c>
@@ -1659,8 +1793,11 @@
       <c r="E27" s="2">
         <v>6000</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F27" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>12025</v>
       </c>
@@ -1675,6 +1812,9 @@
       </c>
       <c r="E28" s="2">
         <v>8000</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/StatLevelData.xlsx
+++ b/Assets/ExcelDatas/StatLevelData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dunn\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2376CD60-005A-4CB9-8B0F-FEB748D8F2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{2376CD60-005A-4CB9-8B0F-FEB748D8F2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BD351D0-F177-4F9C-90BC-6DAF769CD774}"/>
   <bookViews>
-    <workbookView xWindow="5628" yWindow="900" windowWidth="15324" windowHeight="10956" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="8" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="37">
   <si>
     <t>ALL</t>
   </si>
@@ -165,6 +165,13 @@
   <si>
     <t>Icon/Spum_Icon22</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Spum_Icon24</t>
   </si>
 </sst>
 </file>
@@ -741,10 +748,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81D557A3-C0EF-4A58-AAE6-4AA5FAE4319B}" name="표2_23" displayName="표2_23" ref="A2:E7" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A2:E7" xr:uid="{74DD16FE-5A9E-4AB2-9606-9A7DEDCFE3FE}"/>
@@ -760,8 +763,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9658A823-3DA1-47C6-8BBA-59864BF9156C}" name="표2_2" displayName="표2_2" ref="A3:F28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A3:F28" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9658A823-3DA1-47C6-8BBA-59864BF9156C}" name="표2_2" displayName="표2_2" ref="A3:F33" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A3:F33" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{48C3BFC0-1939-4777-A775-4539CD987212}" name="Index" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{8F1ED2AA-D9D2-49AA-967A-E96539B403C3}" name="UpgradeStat" dataDxfId="4"/>
@@ -1077,17 +1080,17 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.69921875" style="1"/>
+    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1102,7 +1105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1119,7 +1122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="7"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -1149,7 +1152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="7"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -1162,7 +1165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="7"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
@@ -1175,7 +1178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="7"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -1188,41 +1191,41 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -1240,24 +1243,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B2916C-EE63-43E2-961A-9DDBB10CECF4}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.69921875" style="3"/>
+    <col min="4" max="4" width="14.1875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1277,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1297,7 +1300,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1317,7 +1320,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A4" s="2">
         <v>12001</v>
       </c>
@@ -1337,7 +1340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A5" s="2">
         <v>12002</v>
       </c>
@@ -1357,7 +1360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A6" s="2">
         <v>12003</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A7" s="2">
         <v>12004</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A8" s="2">
         <v>12005</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A9" s="2">
         <v>12006</v>
       </c>
@@ -1437,7 +1440,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A10" s="2">
         <v>12007</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A11" s="2">
         <v>12008</v>
       </c>
@@ -1477,7 +1480,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A12" s="2">
         <v>12009</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A13" s="2">
         <v>12010</v>
       </c>
@@ -1517,7 +1520,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A14" s="2">
         <v>12011</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A15" s="2">
         <v>12012</v>
       </c>
@@ -1557,7 +1560,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A16" s="2">
         <v>12013</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A17" s="2">
         <v>12014</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A18" s="2">
         <v>12015</v>
       </c>
@@ -1617,7 +1620,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A19" s="2">
         <v>12016</v>
       </c>
@@ -1637,7 +1640,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A20" s="2">
         <v>12017</v>
       </c>
@@ -1657,7 +1660,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A21" s="2">
         <v>12018</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A22" s="2">
         <v>12019</v>
       </c>
@@ -1697,7 +1700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A23" s="2">
         <v>12020</v>
       </c>
@@ -1717,7 +1720,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A24" s="2">
         <v>12021</v>
       </c>
@@ -1737,7 +1740,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A25" s="2">
         <v>12022</v>
       </c>
@@ -1757,7 +1760,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A26" s="2">
         <v>12023</v>
       </c>
@@ -1777,7 +1780,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A27" s="2">
         <v>12024</v>
       </c>
@@ -1797,7 +1800,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A28" s="2">
         <v>12025</v>
       </c>
@@ -1816,6 +1819,109 @@
       <c r="F28" s="18" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A29" s="2">
+        <v>12026</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="2">
+        <v>50</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A30" s="2">
+        <v>12027</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="2">
+        <v>50</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A31" s="2">
+        <v>12028</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="2">
+        <v>50</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A32" s="2">
+        <v>12029</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="2">
+        <v>50</v>
+      </c>
+      <c r="D32" s="2">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2">
+        <v>6000</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A33" s="2">
+        <v>12030</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="2">
+        <v>50</v>
+      </c>
+      <c r="D33" s="2">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2">
+        <v>8000</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="F34" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ExcelDatas/StatLevelData.xlsx
+++ b/Assets/ExcelDatas/StatLevelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{2376CD60-005A-4CB9-8B0F-FEB748D8F2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BD351D0-F177-4F9C-90BC-6DAF769CD774}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBAD8BA-E7E1-420C-9B00-57B3519FE298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="8" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="38">
   <si>
     <t>ALL</t>
   </si>
@@ -172,6 +172,10 @@
   </si>
   <si>
     <t>Icon/Spum_Icon24</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -428,11 +432,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="none"/>
+        <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -476,11 +480,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <name val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="major"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -767,11 +771,11 @@
   <autoFilter ref="A3:F33" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{48C3BFC0-1939-4777-A775-4539CD987212}" name="Index" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{8F1ED2AA-D9D2-49AA-967A-E96539B403C3}" name="UpgradeStat" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{879C8458-55D3-490C-B008-37FEB8ADB40B}" name="AddStat" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{9A4876DF-E863-48A5-B265-F985861F8B76}" name="Level" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{AD0E8C02-DDEF-4E0D-9C02-0544E346969B}" name="Gold" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{D737FB60-76D4-4E01-980D-8C57974F1BAB}" name="Icon" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{8F1ED2AA-D9D2-49AA-967A-E96539B403C3}" name="UpgradeStat" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{879C8458-55D3-490C-B008-37FEB8ADB40B}" name="AddStat" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{9A4876DF-E863-48A5-B265-F985861F8B76}" name="Level" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{AD0E8C02-DDEF-4E0D-9C02-0544E346969B}" name="Gold" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{D737FB60-76D4-4E01-980D-8C57974F1BAB}" name="Icon" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1080,17 +1084,17 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6875" style="1"/>
+    <col min="3" max="3" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1105,7 +1109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1122,7 +1126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -1139,7 +1143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -1152,7 +1156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -1165,7 +1169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
@@ -1178,7 +1182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -1191,41 +1195,41 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -1246,21 +1250,21 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.1875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6875" style="3"/>
+    <col min="4" max="4" width="14.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1288,7 +1292,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1300,7 +1304,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1320,7 +1324,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>12001</v>
       </c>
@@ -1340,7 +1344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>12002</v>
       </c>
@@ -1360,7 +1364,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>12003</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>12004</v>
       </c>
@@ -1400,7 +1404,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>12005</v>
       </c>
@@ -1420,7 +1424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>12006</v>
       </c>
@@ -1428,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>100</v>
+        <v>0.05</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -1440,7 +1444,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>12007</v>
       </c>
@@ -1448,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>100</v>
+        <v>0.05</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
@@ -1460,7 +1464,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>12008</v>
       </c>
@@ -1468,7 +1472,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>100</v>
+        <v>0.05</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
@@ -1480,7 +1484,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>12009</v>
       </c>
@@ -1488,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>100</v>
+        <v>0.05</v>
       </c>
       <c r="D12" s="2">
         <v>4</v>
@@ -1500,7 +1504,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12010</v>
       </c>
@@ -1508,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>100</v>
+        <v>0.05</v>
       </c>
       <c r="D13" s="2">
         <v>5</v>
@@ -1520,7 +1524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>12011</v>
       </c>
@@ -1528,7 +1532,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="2">
-        <v>200</v>
+        <v>0.05</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -1540,7 +1544,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>12012</v>
       </c>
@@ -1548,7 +1552,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="2">
-        <v>200</v>
+        <v>0.05</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -1560,7 +1564,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>12013</v>
       </c>
@@ -1568,7 +1572,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="2">
-        <v>200</v>
+        <v>0.05</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
@@ -1580,7 +1584,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>12014</v>
       </c>
@@ -1588,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="2">
-        <v>200</v>
+        <v>0.05</v>
       </c>
       <c r="D17" s="2">
         <v>4</v>
@@ -1600,7 +1604,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>12015</v>
       </c>
@@ -1608,7 +1612,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="2">
-        <v>200</v>
+        <v>0.05</v>
       </c>
       <c r="D18" s="2">
         <v>5</v>
@@ -1620,7 +1624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>12016</v>
       </c>
@@ -1628,7 +1632,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -1640,7 +1644,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>12017</v>
       </c>
@@ -1648,7 +1652,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D20" s="2">
         <v>2</v>
@@ -1660,7 +1664,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>12018</v>
       </c>
@@ -1668,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2">
         <v>3</v>
@@ -1680,7 +1684,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>12019</v>
       </c>
@@ -1688,7 +1692,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2">
         <v>4</v>
@@ -1700,7 +1704,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>12020</v>
       </c>
@@ -1708,7 +1712,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D23" s="2">
         <v>5</v>
@@ -1720,7 +1724,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>12021</v>
       </c>
@@ -1728,7 +1732,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="2">
-        <v>50</v>
+        <v>0.05</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -1740,7 +1744,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>12022</v>
       </c>
@@ -1748,7 +1752,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="2">
-        <v>50</v>
+        <v>0.05</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
@@ -1760,7 +1764,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>12023</v>
       </c>
@@ -1768,7 +1772,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="2">
-        <v>50</v>
+        <v>0.05</v>
       </c>
       <c r="D26" s="2">
         <v>3</v>
@@ -1780,7 +1784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>12024</v>
       </c>
@@ -1788,7 +1792,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="2">
-        <v>50</v>
+        <v>0.05</v>
       </c>
       <c r="D27" s="2">
         <v>4</v>
@@ -1800,7 +1804,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>12025</v>
       </c>
@@ -1808,7 +1812,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="2">
-        <v>50</v>
+        <v>0.05</v>
       </c>
       <c r="D28" s="2">
         <v>5</v>
@@ -1820,7 +1824,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>12026</v>
       </c>
@@ -1828,7 +1832,7 @@
         <v>35</v>
       </c>
       <c r="C29" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -1840,7 +1844,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>12027</v>
       </c>
@@ -1848,7 +1852,7 @@
         <v>35</v>
       </c>
       <c r="C30" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D30" s="2">
         <v>2</v>
@@ -1860,7 +1864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>12028</v>
       </c>
@@ -1868,7 +1872,7 @@
         <v>35</v>
       </c>
       <c r="C31" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D31" s="2">
         <v>3</v>
@@ -1880,7 +1884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>12029</v>
       </c>
@@ -1888,7 +1892,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D32" s="2">
         <v>4</v>
@@ -1900,7 +1904,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>12030</v>
       </c>
@@ -1908,7 +1912,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D33" s="2">
         <v>5</v>
@@ -1920,7 +1924,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F34" s="18"/>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/StatLevelData.xlsx
+++ b/Assets/ExcelDatas/StatLevelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBAD8BA-E7E1-420C-9B00-57B3519FE298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5847B912-EC11-440D-9608-6C0445AA5806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="8" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="39">
   <si>
     <t>ALL</t>
   </si>
@@ -175,6 +175,10 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum&lt;Status&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,11 +436,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <name val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="major"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -480,11 +484,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="none"/>
+        <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -771,11 +775,11 @@
   <autoFilter ref="A3:F33" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{48C3BFC0-1939-4777-A775-4539CD987212}" name="Index" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{8F1ED2AA-D9D2-49AA-967A-E96539B403C3}" name="UpgradeStat" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{879C8458-55D3-490C-B008-37FEB8ADB40B}" name="AddStat" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{9A4876DF-E863-48A5-B265-F985861F8B76}" name="Level" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{AD0E8C02-DDEF-4E0D-9C02-0544E346969B}" name="Gold" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{D737FB60-76D4-4E01-980D-8C57974F1BAB}" name="Icon" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{8F1ED2AA-D9D2-49AA-967A-E96539B403C3}" name="UpgradeStat" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{879C8458-55D3-490C-B008-37FEB8ADB40B}" name="AddStat" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{9A4876DF-E863-48A5-B265-F985861F8B76}" name="Level" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{AD0E8C02-DDEF-4E0D-9C02-0544E346969B}" name="Gold" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{D737FB60-76D4-4E01-980D-8C57974F1BAB}" name="Icon" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1084,17 +1088,17 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.69921875" style="1"/>
+    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1109,7 +1113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1126,7 +1130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -1143,7 +1147,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -1156,7 +1160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -1169,7 +1173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
@@ -1182,7 +1186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -1195,41 +1199,41 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -1250,21 +1254,21 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.69921875" style="3"/>
+    <col min="4" max="4" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1284,12 +1288,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>37</v>
@@ -1304,7 +1308,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1324,7 +1328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>12001</v>
       </c>
@@ -1344,7 +1348,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>12002</v>
       </c>
@@ -1364,7 +1368,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>12003</v>
       </c>
@@ -1384,7 +1388,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>12004</v>
       </c>
@@ -1404,7 +1408,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>12005</v>
       </c>
@@ -1424,7 +1428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>12006</v>
       </c>
@@ -1444,7 +1448,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>12007</v>
       </c>
@@ -1464,7 +1468,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>12008</v>
       </c>
@@ -1484,7 +1488,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>12009</v>
       </c>
@@ -1504,7 +1508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12010</v>
       </c>
@@ -1524,7 +1528,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12011</v>
       </c>
@@ -1544,7 +1548,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12012</v>
       </c>
@@ -1564,7 +1568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>12013</v>
       </c>
@@ -1584,7 +1588,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>12014</v>
       </c>
@@ -1604,7 +1608,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>12015</v>
       </c>
@@ -1624,7 +1628,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>12016</v>
       </c>
@@ -1644,7 +1648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>12017</v>
       </c>
@@ -1664,7 +1668,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>12018</v>
       </c>
@@ -1684,7 +1688,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>12019</v>
       </c>
@@ -1704,7 +1708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>12020</v>
       </c>
@@ -1724,7 +1728,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>12021</v>
       </c>
@@ -1744,7 +1748,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>12022</v>
       </c>
@@ -1764,7 +1768,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>12023</v>
       </c>
@@ -1784,7 +1788,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>12024</v>
       </c>
@@ -1804,7 +1808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>12025</v>
       </c>
@@ -1824,7 +1828,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>12026</v>
       </c>
@@ -1844,7 +1848,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>12027</v>
       </c>
@@ -1864,7 +1868,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>12028</v>
       </c>
@@ -1884,7 +1888,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>12029</v>
       </c>
@@ -1904,7 +1908,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>12030</v>
       </c>
@@ -1924,7 +1928,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F34" s="18"/>
     </row>
   </sheetData>
